--- a/data/categorial_size_experiment/results/A_5000_cs joint archi.xlsx
+++ b/data/categorial_size_experiment/results/A_5000_cs joint archi.xlsx
@@ -1754,7 +1754,7 @@
         <v>46</v>
       </c>
       <c r="D12" t="n">
-        <v>0.86298969072165</v>
+        <v>0.862989690721649</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -2952,7 +2952,7 @@
         <v>168</v>
       </c>
       <c r="D51" t="n">
-        <v>0.61764705882353</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
@@ -3772,7 +3772,7 @@
         <v>250</v>
       </c>
       <c r="D78" t="n">
-        <v>0.87689393939394</v>
+        <v>0.876893939393939</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
@@ -4794,3364 +4794,6 @@
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112"/>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3</v>
-      </c>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.556701030927835</v>
-      </c>
-      <c r="E113" t="s">
-        <v>20</v>
-      </c>
-      <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" t="s">
-        <v>21</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3</v>
-      </c>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="L113"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>22</v>
-      </c>
-      <c r="B114" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E114"/>
-      <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" t="s">
-        <v>24</v>
-      </c>
-      <c r="I114" t="n">
-        <v>4</v>
-      </c>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>25</v>
-      </c>
-      <c r="B115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" t="s">
-        <v>26</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.95959595959596</v>
-      </c>
-      <c r="E115"/>
-      <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" t="s">
-        <v>27</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3</v>
-      </c>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>28</v>
-      </c>
-      <c r="B116" t="s">
-        <v>29</v>
-      </c>
-      <c r="C116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="E116"/>
-      <c r="F116" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116" t="s">
-        <v>31</v>
-      </c>
-      <c r="I116" t="n">
-        <v>4</v>
-      </c>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E117" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" t="s">
-        <v>33</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
-      <c r="H117" t="s">
-        <v>34</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3</v>
-      </c>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="L117"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>35</v>
-      </c>
-      <c r="B118" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E118"/>
-      <c r="F118" t="s">
-        <v>36</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
-      <c r="H118" t="s">
-        <v>37</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3</v>
-      </c>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="E119"/>
-      <c r="F119" t="s">
-        <v>40</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
-      <c r="H119" t="s">
-        <v>41</v>
-      </c>
-      <c r="I119" t="n">
-        <v>4</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>38</v>
-      </c>
-      <c r="B120" t="s">
-        <v>39</v>
-      </c>
-      <c r="C120" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="E120"/>
-      <c r="F120" t="s">
-        <v>40</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
-      <c r="H120" t="s">
-        <v>42</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121" t="s">
-        <v>39</v>
-      </c>
-      <c r="C121" t="s">
-        <v>44</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121"/>
-      <c r="F121" t="s">
-        <v>44</v>
-      </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" t="s">
-        <v>41</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4</v>
-      </c>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>45</v>
-      </c>
-      <c r="B122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" t="s">
-        <v>46</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.86298969072165</v>
-      </c>
-      <c r="E122"/>
-      <c r="F122" t="s">
-        <v>46</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" t="s">
-        <v>47</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3</v>
-      </c>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>48</v>
-      </c>
-      <c r="B123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E123"/>
-      <c r="F123" t="s">
-        <v>49</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" t="s">
-        <v>50</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3</v>
-      </c>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>51</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" t="s">
-        <v>52</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124"/>
-      <c r="F124" t="s">
-        <v>52</v>
-      </c>
-      <c r="G124" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" t="s">
-        <v>53</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4</v>
-      </c>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>54</v>
-      </c>
-      <c r="B125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" t="s">
-        <v>55</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E125"/>
-      <c r="F125" t="s">
-        <v>55</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" t="s">
-        <v>56</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3</v>
-      </c>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>57</v>
-      </c>
-      <c r="B126" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" t="s">
-        <v>58</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.362373737373737</v>
-      </c>
-      <c r="E126"/>
-      <c r="F126" t="s">
-        <v>58</v>
-      </c>
-      <c r="G126" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" t="s">
-        <v>59</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3</v>
-      </c>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>60</v>
-      </c>
-      <c r="B127" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" t="s">
-        <v>61</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.0645161290322581</v>
-      </c>
-      <c r="E127"/>
-      <c r="F127" t="s">
-        <v>61</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
-      <c r="H127" t="s">
-        <v>62</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3</v>
-      </c>
-      <c r="J127"/>
-      <c r="K127"/>
-      <c r="L127"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>63</v>
-      </c>
-      <c r="B128" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" t="s">
-        <v>64</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="E128"/>
-      <c r="F128" t="s">
-        <v>64</v>
-      </c>
-      <c r="G128" t="s">
-        <v>15</v>
-      </c>
-      <c r="H128" t="s">
-        <v>65</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3</v>
-      </c>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="L128"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" t="s">
-        <v>29</v>
-      </c>
-      <c r="C129" t="s">
-        <v>67</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.90625</v>
-      </c>
-      <c r="E129"/>
-      <c r="F129" t="s">
-        <v>67</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
-      <c r="H129" t="s">
-        <v>68</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4</v>
-      </c>
-      <c r="J129" t="s">
-        <v>69</v>
-      </c>
-      <c r="K129"/>
-      <c r="L129"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>70</v>
-      </c>
-      <c r="B130" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" t="s">
-        <v>71</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.352941176470588</v>
-      </c>
-      <c r="E130"/>
-      <c r="F130" t="s">
-        <v>71</v>
-      </c>
-      <c r="G130" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" t="s">
-        <v>72</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3</v>
-      </c>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>73</v>
-      </c>
-      <c r="B131" t="s">
-        <v>29</v>
-      </c>
-      <c r="C131" t="s">
-        <v>74</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.640625</v>
-      </c>
-      <c r="E131"/>
-      <c r="F131" t="s">
-        <v>74</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" t="s">
-        <v>75</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3</v>
-      </c>
-      <c r="J131"/>
-      <c r="K131"/>
-      <c r="L131"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>76</v>
-      </c>
-      <c r="B132" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" t="s">
-        <v>77</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.557894736842105</v>
-      </c>
-      <c r="E132"/>
-      <c r="F132" t="s">
-        <v>77</v>
-      </c>
-      <c r="G132" t="s">
-        <v>15</v>
-      </c>
-      <c r="H132" t="s">
-        <v>78</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3</v>
-      </c>
-      <c r="J132" t="s">
-        <v>79</v>
-      </c>
-      <c r="K132"/>
-      <c r="L132"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>80</v>
-      </c>
-      <c r="B133" t="s">
-        <v>29</v>
-      </c>
-      <c r="C133" t="s">
-        <v>81</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.203125</v>
-      </c>
-      <c r="E133"/>
-      <c r="F133" t="s">
-        <v>81</v>
-      </c>
-      <c r="G133" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" t="s">
-        <v>82</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3</v>
-      </c>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>83</v>
-      </c>
-      <c r="B134" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" t="s">
-        <v>84</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="E134"/>
-      <c r="F134" t="s">
-        <v>84</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
-      <c r="H134" t="s">
-        <v>85</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4</v>
-      </c>
-      <c r="J134"/>
-      <c r="K134"/>
-      <c r="L134"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>86</v>
-      </c>
-      <c r="B135" t="s">
-        <v>18</v>
-      </c>
-      <c r="C135" t="s">
-        <v>87</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E135"/>
-      <c r="F135" t="s">
-        <v>87</v>
-      </c>
-      <c r="G135" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" t="s">
-        <v>88</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3</v>
-      </c>
-      <c r="J135"/>
-      <c r="K135"/>
-      <c r="L135" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>89</v>
-      </c>
-      <c r="B136" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" t="s">
-        <v>90</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.797979797979798</v>
-      </c>
-      <c r="E136" t="s">
-        <v>20</v>
-      </c>
-      <c r="F136" t="s">
-        <v>90</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" t="s">
-        <v>91</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3</v>
-      </c>
-      <c r="J136"/>
-      <c r="K136"/>
-      <c r="L136"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>92</v>
-      </c>
-      <c r="B137" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" t="s">
-        <v>93</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.979591836734694</v>
-      </c>
-      <c r="E137"/>
-      <c r="F137" t="s">
-        <v>93</v>
-      </c>
-      <c r="G137" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" t="s">
-        <v>94</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3</v>
-      </c>
-      <c r="J137"/>
-      <c r="K137"/>
-      <c r="L137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>95</v>
-      </c>
-      <c r="B138" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138" t="s">
-        <v>96</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.317894736842105</v>
-      </c>
-      <c r="E138"/>
-      <c r="F138" t="s">
-        <v>96</v>
-      </c>
-      <c r="G138" t="s">
-        <v>15</v>
-      </c>
-      <c r="H138" t="s">
-        <v>97</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4</v>
-      </c>
-      <c r="J138"/>
-      <c r="K138"/>
-      <c r="L138"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>98</v>
-      </c>
-      <c r="B139" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" t="s">
-        <v>99</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E139"/>
-      <c r="F139" t="s">
-        <v>99</v>
-      </c>
-      <c r="G139" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" t="s">
-        <v>100</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3</v>
-      </c>
-      <c r="J139"/>
-      <c r="K139"/>
-      <c r="L139"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>101</v>
-      </c>
-      <c r="B140" t="s">
-        <v>29</v>
-      </c>
-      <c r="C140" t="s">
-        <v>102</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.046875</v>
-      </c>
-      <c r="E140"/>
-      <c r="F140" t="s">
-        <v>102</v>
-      </c>
-      <c r="G140" t="s">
-        <v>15</v>
-      </c>
-      <c r="H140" t="s">
-        <v>103</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4</v>
-      </c>
-      <c r="J140" t="s">
-        <v>104</v>
-      </c>
-      <c r="K140"/>
-      <c r="L140"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>105</v>
-      </c>
-      <c r="B141" t="s">
-        <v>39</v>
-      </c>
-      <c r="C141" t="s">
-        <v>106</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141"/>
-      <c r="F141" t="s">
-        <v>106</v>
-      </c>
-      <c r="G141" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" t="s">
-        <v>107</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3</v>
-      </c>
-      <c r="J141"/>
-      <c r="K141"/>
-      <c r="L141"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" t="s">
-        <v>18</v>
-      </c>
-      <c r="C142" t="s">
-        <v>109</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E142"/>
-      <c r="F142" t="s">
-        <v>109</v>
-      </c>
-      <c r="G142" t="s">
-        <v>15</v>
-      </c>
-      <c r="H142" t="s">
-        <v>110</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3</v>
-      </c>
-      <c r="J142"/>
-      <c r="K142"/>
-      <c r="L142"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>111</v>
-      </c>
-      <c r="B143" t="s">
-        <v>29</v>
-      </c>
-      <c r="C143" t="s">
-        <v>112</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.245901639344262</v>
-      </c>
-      <c r="E143"/>
-      <c r="F143" t="s">
-        <v>113</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" t="s">
-        <v>114</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4</v>
-      </c>
-      <c r="J143"/>
-      <c r="K143"/>
-      <c r="L143"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>115</v>
-      </c>
-      <c r="B144" t="s">
-        <v>39</v>
-      </c>
-      <c r="C144" t="s">
-        <v>116</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.360655737704918</v>
-      </c>
-      <c r="E144"/>
-      <c r="F144" t="s">
-        <v>116</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
-      <c r="H144" t="s">
-        <v>117</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4</v>
-      </c>
-      <c r="J144"/>
-      <c r="K144"/>
-      <c r="L144"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>118</v>
-      </c>
-      <c r="B145" t="s">
-        <v>39</v>
-      </c>
-      <c r="C145" t="s">
-        <v>119</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.696428571428571</v>
-      </c>
-      <c r="E145"/>
-      <c r="F145" t="s">
-        <v>119</v>
-      </c>
-      <c r="G145" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" t="s">
-        <v>120</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3</v>
-      </c>
-      <c r="J145"/>
-      <c r="K145"/>
-      <c r="L145"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>121</v>
-      </c>
-      <c r="B146" t="s">
-        <v>29</v>
-      </c>
-      <c r="C146" t="s">
-        <v>122</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="E146"/>
-      <c r="F146" t="s">
-        <v>122</v>
-      </c>
-      <c r="G146" t="s">
-        <v>15</v>
-      </c>
-      <c r="H146" t="s">
-        <v>123</v>
-      </c>
-      <c r="I146" t="n">
-        <v>4</v>
-      </c>
-      <c r="J146"/>
-      <c r="K146"/>
-      <c r="L146"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>124</v>
-      </c>
-      <c r="B147" t="s">
-        <v>18</v>
-      </c>
-      <c r="C147" t="s">
-        <v>125</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E147" t="s">
-        <v>20</v>
-      </c>
-      <c r="F147" t="s">
-        <v>125</v>
-      </c>
-      <c r="G147" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" t="s">
-        <v>126</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3</v>
-      </c>
-      <c r="J147"/>
-      <c r="K147"/>
-      <c r="L147"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>127</v>
-      </c>
-      <c r="B148" t="s">
-        <v>18</v>
-      </c>
-      <c r="C148" t="s">
-        <v>128</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E148" t="s">
-        <v>20</v>
-      </c>
-      <c r="F148" t="s">
-        <v>128</v>
-      </c>
-      <c r="G148" t="s">
-        <v>15</v>
-      </c>
-      <c r="H148" t="s">
-        <v>129</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3</v>
-      </c>
-      <c r="J148"/>
-      <c r="K148"/>
-      <c r="L148"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>130</v>
-      </c>
-      <c r="B149" t="s">
-        <v>18</v>
-      </c>
-      <c r="C149" t="s">
-        <v>131</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E149" t="s">
-        <v>20</v>
-      </c>
-      <c r="F149" t="s">
-        <v>131</v>
-      </c>
-      <c r="G149" t="s">
-        <v>15</v>
-      </c>
-      <c r="H149" t="s">
-        <v>132</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3</v>
-      </c>
-      <c r="J149"/>
-      <c r="K149"/>
-      <c r="L149"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>133</v>
-      </c>
-      <c r="B150" t="s">
-        <v>29</v>
-      </c>
-      <c r="C150" t="s">
-        <v>134</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="E150"/>
-      <c r="F150" t="s">
-        <v>134</v>
-      </c>
-      <c r="G150" t="s">
-        <v>15</v>
-      </c>
-      <c r="H150" t="s">
-        <v>135</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3</v>
-      </c>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150"/>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>136</v>
-      </c>
-      <c r="B151" t="s">
-        <v>18</v>
-      </c>
-      <c r="C151" t="s">
-        <v>137</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.797752808988764</v>
-      </c>
-      <c r="E151" t="s">
-        <v>20</v>
-      </c>
-      <c r="F151" t="s">
-        <v>137</v>
-      </c>
-      <c r="G151" t="s">
-        <v>15</v>
-      </c>
-      <c r="H151" t="s">
-        <v>138</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3</v>
-      </c>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>139</v>
-      </c>
-      <c r="B152" t="s">
-        <v>39</v>
-      </c>
-      <c r="C152" t="s">
-        <v>140</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152"/>
-      <c r="F152" t="s">
-        <v>140</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
-      <c r="H152" t="s">
-        <v>141</v>
-      </c>
-      <c r="I152" t="n">
-        <v>4</v>
-      </c>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>142</v>
-      </c>
-      <c r="B153" t="s">
-        <v>18</v>
-      </c>
-      <c r="C153" t="s">
-        <v>143</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E153"/>
-      <c r="F153" t="s">
-        <v>143</v>
-      </c>
-      <c r="G153" t="s">
-        <v>15</v>
-      </c>
-      <c r="H153" t="s">
-        <v>144</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3</v>
-      </c>
-      <c r="J153"/>
-      <c r="K153"/>
-      <c r="L153"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>145</v>
-      </c>
-      <c r="B154" t="s">
-        <v>18</v>
-      </c>
-      <c r="C154" t="s">
-        <v>146</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.305692803437164</v>
-      </c>
-      <c r="E154"/>
-      <c r="F154" t="s">
-        <v>146</v>
-      </c>
-      <c r="G154" t="s">
-        <v>15</v>
-      </c>
-      <c r="H154" t="s">
-        <v>147</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3</v>
-      </c>
-      <c r="J154"/>
-      <c r="K154"/>
-      <c r="L154"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>148</v>
-      </c>
-      <c r="B155" t="s">
-        <v>18</v>
-      </c>
-      <c r="C155" t="s">
-        <v>149</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.724461105904405</v>
-      </c>
-      <c r="E155"/>
-      <c r="F155" t="s">
-        <v>149</v>
-      </c>
-      <c r="G155" t="s">
-        <v>15</v>
-      </c>
-      <c r="H155" t="s">
-        <v>150</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3</v>
-      </c>
-      <c r="J155"/>
-      <c r="K155"/>
-      <c r="L155"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>151</v>
-      </c>
-      <c r="B156" t="s">
-        <v>18</v>
-      </c>
-      <c r="C156" t="s">
-        <v>152</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.208092783505155</v>
-      </c>
-      <c r="E156"/>
-      <c r="F156" t="s">
-        <v>152</v>
-      </c>
-      <c r="G156" t="s">
-        <v>15</v>
-      </c>
-      <c r="H156" t="s">
-        <v>153</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4</v>
-      </c>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>154</v>
-      </c>
-      <c r="B157" t="s">
-        <v>39</v>
-      </c>
-      <c r="C157" t="s">
-        <v>155</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.707297726070862</v>
-      </c>
-      <c r="E157"/>
-      <c r="F157" t="s">
-        <v>155</v>
-      </c>
-      <c r="G157" t="s">
-        <v>15</v>
-      </c>
-      <c r="H157" t="s">
-        <v>156</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4</v>
-      </c>
-      <c r="J157"/>
-      <c r="K157"/>
-      <c r="L157"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>13</v>
-      </c>
-      <c r="C158" t="s">
-        <v>158</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="E158"/>
-      <c r="F158" t="s">
-        <v>158</v>
-      </c>
-      <c r="G158" t="s">
-        <v>15</v>
-      </c>
-      <c r="H158" t="s">
-        <v>159</v>
-      </c>
-      <c r="I158" t="n">
-        <v>3</v>
-      </c>
-      <c r="J158"/>
-      <c r="K158"/>
-      <c r="L158"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" t="s">
-        <v>29</v>
-      </c>
-      <c r="C159" t="s">
-        <v>161</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.603174603174603</v>
-      </c>
-      <c r="E159"/>
-      <c r="F159" t="s">
-        <v>161</v>
-      </c>
-      <c r="G159" t="s">
-        <v>15</v>
-      </c>
-      <c r="H159" t="s">
-        <v>162</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3</v>
-      </c>
-      <c r="J159"/>
-      <c r="K159"/>
-      <c r="L159"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>163</v>
-      </c>
-      <c r="B160" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" t="s">
-        <v>164</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E160"/>
-      <c r="F160" t="s">
-        <v>164</v>
-      </c>
-      <c r="G160" t="s">
-        <v>15</v>
-      </c>
-      <c r="H160" t="s">
-        <v>165</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3</v>
-      </c>
-      <c r="J160" t="s">
-        <v>166</v>
-      </c>
-      <c r="K160"/>
-      <c r="L160"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>167</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>168</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.61764705882353</v>
-      </c>
-      <c r="E161"/>
-      <c r="F161" t="s">
-        <v>168</v>
-      </c>
-      <c r="G161" t="s">
-        <v>15</v>
-      </c>
-      <c r="H161" t="s">
-        <v>169</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3</v>
-      </c>
-      <c r="J161"/>
-      <c r="K161"/>
-      <c r="L161"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>170</v>
-      </c>
-      <c r="B162" t="s">
-        <v>29</v>
-      </c>
-      <c r="C162" t="s">
-        <v>171</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="E162"/>
-      <c r="F162" t="s">
-        <v>171</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
-      <c r="H162" t="s">
-        <v>172</v>
-      </c>
-      <c r="I162" t="n">
-        <v>4</v>
-      </c>
-      <c r="J162"/>
-      <c r="K162"/>
-      <c r="L162"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>173</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>174</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="E163"/>
-      <c r="F163" t="s">
-        <v>174</v>
-      </c>
-      <c r="G163" t="s">
-        <v>15</v>
-      </c>
-      <c r="H163" t="s">
-        <v>175</v>
-      </c>
-      <c r="I163" t="n">
-        <v>4</v>
-      </c>
-      <c r="J163"/>
-      <c r="K163"/>
-      <c r="L163"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>176</v>
-      </c>
-      <c r="B164" t="s">
-        <v>18</v>
-      </c>
-      <c r="C164" t="s">
-        <v>177</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E164"/>
-      <c r="F164" t="s">
-        <v>177</v>
-      </c>
-      <c r="G164" t="s">
-        <v>15</v>
-      </c>
-      <c r="H164" t="s">
-        <v>178</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3</v>
-      </c>
-      <c r="J164"/>
-      <c r="K164"/>
-      <c r="L164"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>179</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" t="s">
-        <v>180</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.149286987522282</v>
-      </c>
-      <c r="E165"/>
-      <c r="F165" t="s">
-        <v>180</v>
-      </c>
-      <c r="G165" t="s">
-        <v>15</v>
-      </c>
-      <c r="H165" t="s">
-        <v>181</v>
-      </c>
-      <c r="I165" t="n">
-        <v>4</v>
-      </c>
-      <c r="J165"/>
-      <c r="K165"/>
-      <c r="L165"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>182</v>
-      </c>
-      <c r="B166" t="s">
-        <v>18</v>
-      </c>
-      <c r="C166" t="s">
-        <v>183</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E166"/>
-      <c r="F166" t="s">
-        <v>183</v>
-      </c>
-      <c r="G166" t="s">
-        <v>15</v>
-      </c>
-      <c r="H166" t="s">
-        <v>184</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3</v>
-      </c>
-      <c r="J166"/>
-      <c r="K166"/>
-      <c r="L166"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>185</v>
-      </c>
-      <c r="B167" t="s">
-        <v>29</v>
-      </c>
-      <c r="C167" t="s">
-        <v>186</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="E167"/>
-      <c r="F167" t="s">
-        <v>186</v>
-      </c>
-      <c r="G167" t="s">
-        <v>15</v>
-      </c>
-      <c r="H167" t="s">
-        <v>187</v>
-      </c>
-      <c r="I167" t="n">
-        <v>4</v>
-      </c>
-      <c r="J167"/>
-      <c r="K167"/>
-      <c r="L167"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>188</v>
-      </c>
-      <c r="B168" t="s">
-        <v>29</v>
-      </c>
-      <c r="C168" t="s">
-        <v>189</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.640625</v>
-      </c>
-      <c r="E168"/>
-      <c r="F168" t="s">
-        <v>189</v>
-      </c>
-      <c r="G168" t="s">
-        <v>15</v>
-      </c>
-      <c r="H168" t="s">
-        <v>190</v>
-      </c>
-      <c r="I168" t="n">
-        <v>4</v>
-      </c>
-      <c r="J168"/>
-      <c r="K168"/>
-      <c r="L168"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>191</v>
-      </c>
-      <c r="B169" t="s">
-        <v>39</v>
-      </c>
-      <c r="C169" t="s">
-        <v>192</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.186440677966102</v>
-      </c>
-      <c r="E169"/>
-      <c r="F169" t="s">
-        <v>192</v>
-      </c>
-      <c r="G169" t="s">
-        <v>15</v>
-      </c>
-      <c r="H169" t="s">
-        <v>193</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4</v>
-      </c>
-      <c r="J169"/>
-      <c r="K169"/>
-      <c r="L169"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>194</v>
-      </c>
-      <c r="B170" t="s">
-        <v>39</v>
-      </c>
-      <c r="C170" t="s">
-        <v>195</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.913793103448276</v>
-      </c>
-      <c r="E170"/>
-      <c r="F170" t="s">
-        <v>195</v>
-      </c>
-      <c r="G170" t="s">
-        <v>15</v>
-      </c>
-      <c r="H170" t="s">
-        <v>196</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3</v>
-      </c>
-      <c r="J170" t="s">
-        <v>197</v>
-      </c>
-      <c r="K170"/>
-      <c r="L170"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>194</v>
-      </c>
-      <c r="B171" t="s">
-        <v>39</v>
-      </c>
-      <c r="C171" t="s">
-        <v>195</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.913793103448276</v>
-      </c>
-      <c r="E171"/>
-      <c r="F171" t="s">
-        <v>195</v>
-      </c>
-      <c r="G171" t="s">
-        <v>15</v>
-      </c>
-      <c r="H171" t="s">
-        <v>198</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4</v>
-      </c>
-      <c r="J171" t="s">
-        <v>199</v>
-      </c>
-      <c r="K171"/>
-      <c r="L171"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>200</v>
-      </c>
-      <c r="B172" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" t="s">
-        <v>201</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.797752808988764</v>
-      </c>
-      <c r="E172" t="s">
-        <v>20</v>
-      </c>
-      <c r="F172" t="s">
-        <v>201</v>
-      </c>
-      <c r="G172" t="s">
-        <v>15</v>
-      </c>
-      <c r="H172" t="s">
-        <v>202</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3</v>
-      </c>
-      <c r="J172"/>
-      <c r="K172"/>
-      <c r="L172"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>203</v>
-      </c>
-      <c r="B173" t="s">
-        <v>39</v>
-      </c>
-      <c r="C173" t="s">
-        <v>204</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.783333333333333</v>
-      </c>
-      <c r="E173"/>
-      <c r="F173" t="s">
-        <v>204</v>
-      </c>
-      <c r="G173" t="s">
-        <v>15</v>
-      </c>
-      <c r="H173" t="s">
-        <v>205</v>
-      </c>
-      <c r="I173" t="n">
-        <v>4</v>
-      </c>
-      <c r="J173"/>
-      <c r="K173"/>
-      <c r="L173"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>206</v>
-      </c>
-      <c r="B174" t="s">
-        <v>18</v>
-      </c>
-      <c r="C174" t="s">
-        <v>207</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E174"/>
-      <c r="F174" t="s">
-        <v>207</v>
-      </c>
-      <c r="G174" t="s">
-        <v>15</v>
-      </c>
-      <c r="H174" t="s">
-        <v>208</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3</v>
-      </c>
-      <c r="J174"/>
-      <c r="K174"/>
-      <c r="L174"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>209</v>
-      </c>
-      <c r="B175" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" t="s">
-        <v>210</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E175"/>
-      <c r="F175" t="s">
-        <v>210</v>
-      </c>
-      <c r="G175" t="s">
-        <v>15</v>
-      </c>
-      <c r="H175" t="s">
-        <v>211</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3</v>
-      </c>
-      <c r="J175"/>
-      <c r="K175"/>
-      <c r="L175"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>212</v>
-      </c>
-      <c r="B176" t="s">
-        <v>39</v>
-      </c>
-      <c r="C176" t="s">
-        <v>213</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.440677966101695</v>
-      </c>
-      <c r="E176"/>
-      <c r="F176" t="s">
-        <v>213</v>
-      </c>
-      <c r="G176" t="s">
-        <v>15</v>
-      </c>
-      <c r="H176" t="s">
-        <v>214</v>
-      </c>
-      <c r="I176" t="n">
-        <v>4</v>
-      </c>
-      <c r="J176"/>
-      <c r="K176"/>
-      <c r="L176"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>215</v>
-      </c>
-      <c r="B177" t="s">
-        <v>39</v>
-      </c>
-      <c r="C177" t="s">
-        <v>216</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.868852459016393</v>
-      </c>
-      <c r="E177"/>
-      <c r="F177" t="s">
-        <v>216</v>
-      </c>
-      <c r="G177" t="s">
-        <v>15</v>
-      </c>
-      <c r="H177" t="s">
-        <v>217</v>
-      </c>
-      <c r="I177" t="n">
-        <v>4</v>
-      </c>
-      <c r="J177"/>
-      <c r="K177"/>
-      <c r="L177"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>218</v>
-      </c>
-      <c r="B178" t="s">
-        <v>18</v>
-      </c>
-      <c r="C178" t="s">
-        <v>219</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="E178"/>
-      <c r="F178" t="s">
-        <v>219</v>
-      </c>
-      <c r="G178" t="s">
-        <v>15</v>
-      </c>
-      <c r="H178" t="s">
-        <v>220</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3</v>
-      </c>
-      <c r="J178"/>
-      <c r="K178"/>
-      <c r="L178"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>221</v>
-      </c>
-      <c r="B179" t="s">
-        <v>18</v>
-      </c>
-      <c r="C179" t="s">
-        <v>222</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.130656565656566</v>
-      </c>
-      <c r="E179"/>
-      <c r="F179" t="s">
-        <v>222</v>
-      </c>
-      <c r="G179" t="s">
-        <v>15</v>
-      </c>
-      <c r="H179" t="s">
-        <v>223</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3</v>
-      </c>
-      <c r="J179"/>
-      <c r="K179"/>
-      <c r="L179"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>224</v>
-      </c>
-      <c r="B180" t="s">
-        <v>39</v>
-      </c>
-      <c r="C180" t="s">
-        <v>225</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.032258064516129</v>
-      </c>
-      <c r="E180"/>
-      <c r="F180" t="s">
-        <v>225</v>
-      </c>
-      <c r="G180" t="s">
-        <v>15</v>
-      </c>
-      <c r="H180" t="s">
-        <v>226</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3</v>
-      </c>
-      <c r="J180"/>
-      <c r="K180"/>
-      <c r="L180"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>227</v>
-      </c>
-      <c r="B181" t="s">
-        <v>29</v>
-      </c>
-      <c r="C181" t="s">
-        <v>228</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="E181"/>
-      <c r="F181" t="s">
-        <v>228</v>
-      </c>
-      <c r="G181" t="s">
-        <v>15</v>
-      </c>
-      <c r="H181" t="s">
-        <v>229</v>
-      </c>
-      <c r="I181" t="n">
-        <v>4</v>
-      </c>
-      <c r="J181"/>
-      <c r="K181"/>
-      <c r="L181"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>230</v>
-      </c>
-      <c r="B182" t="s">
-        <v>29</v>
-      </c>
-      <c r="C182" t="s">
-        <v>231</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="E182"/>
-      <c r="F182" t="s">
-        <v>231</v>
-      </c>
-      <c r="G182" t="s">
-        <v>15</v>
-      </c>
-      <c r="H182" t="s">
-        <v>232</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3</v>
-      </c>
-      <c r="J182"/>
-      <c r="K182"/>
-      <c r="L182"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>233</v>
-      </c>
-      <c r="B183" t="s">
-        <v>39</v>
-      </c>
-      <c r="C183" t="s">
-        <v>234</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.228789186079954</v>
-      </c>
-      <c r="E183"/>
-      <c r="F183" t="s">
-        <v>234</v>
-      </c>
-      <c r="G183" t="s">
-        <v>15</v>
-      </c>
-      <c r="H183" t="s">
-        <v>235</v>
-      </c>
-      <c r="I183" t="n">
-        <v>4</v>
-      </c>
-      <c r="J183"/>
-      <c r="K183"/>
-      <c r="L183"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>236</v>
-      </c>
-      <c r="B184" t="s">
-        <v>39</v>
-      </c>
-      <c r="C184" t="s">
-        <v>237</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.225806451612903</v>
-      </c>
-      <c r="E184"/>
-      <c r="F184" t="s">
-        <v>237</v>
-      </c>
-      <c r="G184" t="s">
-        <v>15</v>
-      </c>
-      <c r="H184" t="s">
-        <v>238</v>
-      </c>
-      <c r="I184" t="n">
-        <v>4</v>
-      </c>
-      <c r="J184"/>
-      <c r="K184"/>
-      <c r="L184"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>239</v>
-      </c>
-      <c r="B185" t="s">
-        <v>29</v>
-      </c>
-      <c r="C185" t="s">
-        <v>240</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.296875</v>
-      </c>
-      <c r="E185"/>
-      <c r="F185" t="s">
-        <v>240</v>
-      </c>
-      <c r="G185" t="s">
-        <v>15</v>
-      </c>
-      <c r="H185" t="s">
-        <v>241</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3</v>
-      </c>
-      <c r="J185" t="s">
-        <v>242</v>
-      </c>
-      <c r="K185"/>
-      <c r="L185"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>243</v>
-      </c>
-      <c r="B186" t="s">
-        <v>18</v>
-      </c>
-      <c r="C186" t="s">
-        <v>244</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E186" t="s">
-        <v>20</v>
-      </c>
-      <c r="F186" t="s">
-        <v>244</v>
-      </c>
-      <c r="G186" t="s">
-        <v>15</v>
-      </c>
-      <c r="H186" t="s">
-        <v>245</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3</v>
-      </c>
-      <c r="J186"/>
-      <c r="K186"/>
-      <c r="L186"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>246</v>
-      </c>
-      <c r="B187" t="s">
-        <v>18</v>
-      </c>
-      <c r="C187" t="s">
-        <v>247</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E187"/>
-      <c r="F187" t="s">
-        <v>247</v>
-      </c>
-      <c r="G187" t="s">
-        <v>15</v>
-      </c>
-      <c r="H187" t="s">
-        <v>248</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3</v>
-      </c>
-      <c r="J187"/>
-      <c r="K187"/>
-      <c r="L187"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>249</v>
-      </c>
-      <c r="B188" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" t="s">
-        <v>250</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.87689393939394</v>
-      </c>
-      <c r="E188"/>
-      <c r="F188" t="s">
-        <v>251</v>
-      </c>
-      <c r="G188" t="s">
-        <v>15</v>
-      </c>
-      <c r="H188" t="s">
-        <v>252</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3</v>
-      </c>
-      <c r="J188"/>
-      <c r="K188"/>
-      <c r="L188"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>253</v>
-      </c>
-      <c r="B189" t="s">
-        <v>18</v>
-      </c>
-      <c r="C189" t="s">
-        <v>254</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E189"/>
-      <c r="F189" t="s">
-        <v>254</v>
-      </c>
-      <c r="G189" t="s">
-        <v>15</v>
-      </c>
-      <c r="H189" t="s">
-        <v>255</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3</v>
-      </c>
-      <c r="J189"/>
-      <c r="K189"/>
-      <c r="L189"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>256</v>
-      </c>
-      <c r="B190" t="s">
-        <v>29</v>
-      </c>
-      <c r="C190" t="s">
-        <v>257</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="E190"/>
-      <c r="F190" t="s">
-        <v>257</v>
-      </c>
-      <c r="G190" t="s">
-        <v>15</v>
-      </c>
-      <c r="H190" t="s">
-        <v>258</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3</v>
-      </c>
-      <c r="J190"/>
-      <c r="K190"/>
-      <c r="L190"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>259</v>
-      </c>
-      <c r="B191" t="s">
-        <v>13</v>
-      </c>
-      <c r="C191" t="s">
-        <v>260</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.434873949579832</v>
-      </c>
-      <c r="E191"/>
-      <c r="F191" t="s">
-        <v>260</v>
-      </c>
-      <c r="G191" t="s">
-        <v>15</v>
-      </c>
-      <c r="H191" t="s">
-        <v>261</v>
-      </c>
-      <c r="I191" t="n">
-        <v>4</v>
-      </c>
-      <c r="J191"/>
-      <c r="K191"/>
-      <c r="L191" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>262</v>
-      </c>
-      <c r="B192" t="s">
-        <v>39</v>
-      </c>
-      <c r="C192" t="s">
-        <v>263</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.645161290322581</v>
-      </c>
-      <c r="E192"/>
-      <c r="F192" t="s">
-        <v>263</v>
-      </c>
-      <c r="G192" t="s">
-        <v>15</v>
-      </c>
-      <c r="H192" t="s">
-        <v>264</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3</v>
-      </c>
-      <c r="J192"/>
-      <c r="K192"/>
-      <c r="L192"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>262</v>
-      </c>
-      <c r="B193" t="s">
-        <v>39</v>
-      </c>
-      <c r="C193" t="s">
-        <v>263</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.645161290322581</v>
-      </c>
-      <c r="E193"/>
-      <c r="F193" t="s">
-        <v>263</v>
-      </c>
-      <c r="G193" t="s">
-        <v>15</v>
-      </c>
-      <c r="H193" t="s">
-        <v>265</v>
-      </c>
-      <c r="I193" t="n">
-        <v>4</v>
-      </c>
-      <c r="J193"/>
-      <c r="K193"/>
-      <c r="L193"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>266</v>
-      </c>
-      <c r="B194" t="s">
-        <v>29</v>
-      </c>
-      <c r="C194" t="s">
-        <v>267</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.828125</v>
-      </c>
-      <c r="E194"/>
-      <c r="F194" t="s">
-        <v>267</v>
-      </c>
-      <c r="G194" t="s">
-        <v>15</v>
-      </c>
-      <c r="H194" t="s">
-        <v>268</v>
-      </c>
-      <c r="I194" t="n">
-        <v>4</v>
-      </c>
-      <c r="J194"/>
-      <c r="K194"/>
-      <c r="L194"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>269</v>
-      </c>
-      <c r="B195" t="s">
-        <v>29</v>
-      </c>
-      <c r="C195" t="s">
-        <v>270</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="E195"/>
-      <c r="F195" t="s">
-        <v>270</v>
-      </c>
-      <c r="G195" t="s">
-        <v>15</v>
-      </c>
-      <c r="H195" t="s">
-        <v>271</v>
-      </c>
-      <c r="I195" t="n">
-        <v>4</v>
-      </c>
-      <c r="J195"/>
-      <c r="K195"/>
-      <c r="L195"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>272</v>
-      </c>
-      <c r="B196" t="s">
-        <v>29</v>
-      </c>
-      <c r="C196" t="s">
-        <v>273</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="E196"/>
-      <c r="F196" t="s">
-        <v>273</v>
-      </c>
-      <c r="G196" t="s">
-        <v>15</v>
-      </c>
-      <c r="H196" t="s">
-        <v>274</v>
-      </c>
-      <c r="I196" t="n">
-        <v>3</v>
-      </c>
-      <c r="J196"/>
-      <c r="K196"/>
-      <c r="L196"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>275</v>
-      </c>
-      <c r="B197" t="s">
-        <v>29</v>
-      </c>
-      <c r="C197" t="s">
-        <v>276</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="E197"/>
-      <c r="F197" t="s">
-        <v>276</v>
-      </c>
-      <c r="G197" t="s">
-        <v>15</v>
-      </c>
-      <c r="H197" t="s">
-        <v>277</v>
-      </c>
-      <c r="I197" t="n">
-        <v>4</v>
-      </c>
-      <c r="J197" t="s">
-        <v>278</v>
-      </c>
-      <c r="K197"/>
-      <c r="L197"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>279</v>
-      </c>
-      <c r="B198" t="s">
-        <v>29</v>
-      </c>
-      <c r="C198" t="s">
-        <v>280</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="E198"/>
-      <c r="F198" t="s">
-        <v>280</v>
-      </c>
-      <c r="G198" t="s">
-        <v>15</v>
-      </c>
-      <c r="H198" t="s">
-        <v>281</v>
-      </c>
-      <c r="I198" t="n">
-        <v>4</v>
-      </c>
-      <c r="J198" t="s">
-        <v>282</v>
-      </c>
-      <c r="K198"/>
-      <c r="L198"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>283</v>
-      </c>
-      <c r="B199" t="s">
-        <v>39</v>
-      </c>
-      <c r="C199" t="s">
-        <v>284</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.732142857142857</v>
-      </c>
-      <c r="E199"/>
-      <c r="F199" t="s">
-        <v>284</v>
-      </c>
-      <c r="G199" t="s">
-        <v>15</v>
-      </c>
-      <c r="H199" t="s">
-        <v>285</v>
-      </c>
-      <c r="I199" t="n">
-        <v>4</v>
-      </c>
-      <c r="J199"/>
-      <c r="K199"/>
-      <c r="L199"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>286</v>
-      </c>
-      <c r="B200" t="s">
-        <v>39</v>
-      </c>
-      <c r="C200" t="s">
-        <v>287</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.516129032258065</v>
-      </c>
-      <c r="E200"/>
-      <c r="F200" t="s">
-        <v>287</v>
-      </c>
-      <c r="G200" t="s">
-        <v>15</v>
-      </c>
-      <c r="H200" t="s">
-        <v>288</v>
-      </c>
-      <c r="I200" t="n">
-        <v>4</v>
-      </c>
-      <c r="J200"/>
-      <c r="K200"/>
-      <c r="L200"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>289</v>
-      </c>
-      <c r="B201" t="s">
-        <v>18</v>
-      </c>
-      <c r="C201" t="s">
-        <v>290</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1</v>
-      </c>
-      <c r="E201"/>
-      <c r="F201" t="s">
-        <v>290</v>
-      </c>
-      <c r="G201" t="s">
-        <v>15</v>
-      </c>
-      <c r="H201" t="s">
-        <v>291</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3</v>
-      </c>
-      <c r="J201"/>
-      <c r="K201"/>
-      <c r="L201"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>292</v>
-      </c>
-      <c r="B202" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" t="s">
-        <v>293</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.0857142857142857</v>
-      </c>
-      <c r="E202"/>
-      <c r="F202" t="s">
-        <v>293</v>
-      </c>
-      <c r="G202" t="s">
-        <v>15</v>
-      </c>
-      <c r="H202" t="s">
-        <v>294</v>
-      </c>
-      <c r="I202" t="n">
-        <v>4</v>
-      </c>
-      <c r="J202"/>
-      <c r="K202"/>
-      <c r="L202" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>295</v>
-      </c>
-      <c r="B203" t="s">
-        <v>18</v>
-      </c>
-      <c r="C203" t="s">
-        <v>296</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E203" t="s">
-        <v>20</v>
-      </c>
-      <c r="F203" t="s">
-        <v>296</v>
-      </c>
-      <c r="G203" t="s">
-        <v>15</v>
-      </c>
-      <c r="H203" t="s">
-        <v>297</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3</v>
-      </c>
-      <c r="J203"/>
-      <c r="K203"/>
-      <c r="L203"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>298</v>
-      </c>
-      <c r="B204" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" t="s">
-        <v>299</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.710084033613445</v>
-      </c>
-      <c r="E204"/>
-      <c r="F204" t="s">
-        <v>299</v>
-      </c>
-      <c r="G204" t="s">
-        <v>15</v>
-      </c>
-      <c r="H204" t="s">
-        <v>300</v>
-      </c>
-      <c r="I204" t="n">
-        <v>3</v>
-      </c>
-      <c r="J204"/>
-      <c r="K204"/>
-      <c r="L204"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>301</v>
-      </c>
-      <c r="B205" t="s">
-        <v>29</v>
-      </c>
-      <c r="C205" t="s">
-        <v>302</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1</v>
-      </c>
-      <c r="E205"/>
-      <c r="F205" t="s">
-        <v>302</v>
-      </c>
-      <c r="G205" t="s">
-        <v>15</v>
-      </c>
-      <c r="H205" t="s">
-        <v>303</v>
-      </c>
-      <c r="I205" t="n">
-        <v>4</v>
-      </c>
-      <c r="J205"/>
-      <c r="K205"/>
-      <c r="L205"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>304</v>
-      </c>
-      <c r="B206" t="s">
-        <v>39</v>
-      </c>
-      <c r="C206" t="s">
-        <v>305</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.225806451612903</v>
-      </c>
-      <c r="E206"/>
-      <c r="F206" t="s">
-        <v>305</v>
-      </c>
-      <c r="G206" t="s">
-        <v>15</v>
-      </c>
-      <c r="H206" t="s">
-        <v>306</v>
-      </c>
-      <c r="I206" t="n">
-        <v>3</v>
-      </c>
-      <c r="J206"/>
-      <c r="K206"/>
-      <c r="L206"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>307</v>
-      </c>
-      <c r="B207" t="s">
-        <v>39</v>
-      </c>
-      <c r="C207" t="s">
-        <v>308</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.483870967741935</v>
-      </c>
-      <c r="E207"/>
-      <c r="F207" t="s">
-        <v>308</v>
-      </c>
-      <c r="G207" t="s">
-        <v>15</v>
-      </c>
-      <c r="H207" t="s">
-        <v>309</v>
-      </c>
-      <c r="I207" t="n">
-        <v>4</v>
-      </c>
-      <c r="J207"/>
-      <c r="K207"/>
-      <c r="L207"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>310</v>
-      </c>
-      <c r="B208" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" t="s">
-        <v>311</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.151515151515151</v>
-      </c>
-      <c r="E208"/>
-      <c r="F208" t="s">
-        <v>311</v>
-      </c>
-      <c r="G208" t="s">
-        <v>15</v>
-      </c>
-      <c r="H208" t="s">
-        <v>312</v>
-      </c>
-      <c r="I208" t="n">
-        <v>4</v>
-      </c>
-      <c r="J208"/>
-      <c r="K208"/>
-      <c r="L208" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>313</v>
-      </c>
-      <c r="B209" t="s">
-        <v>29</v>
-      </c>
-      <c r="C209" t="s">
-        <v>314</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="E209"/>
-      <c r="F209" t="s">
-        <v>314</v>
-      </c>
-      <c r="G209" t="s">
-        <v>15</v>
-      </c>
-      <c r="H209" t="s">
-        <v>315</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3</v>
-      </c>
-      <c r="J209"/>
-      <c r="K209"/>
-      <c r="L209"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>316</v>
-      </c>
-      <c r="B210" t="s">
-        <v>18</v>
-      </c>
-      <c r="C210" t="s">
-        <v>317</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.255102040816326</v>
-      </c>
-      <c r="E210"/>
-      <c r="F210" t="s">
-        <v>317</v>
-      </c>
-      <c r="G210" t="s">
-        <v>15</v>
-      </c>
-      <c r="H210" t="s">
-        <v>318</v>
-      </c>
-      <c r="I210" t="n">
-        <v>4</v>
-      </c>
-      <c r="J210"/>
-      <c r="K210"/>
-      <c r="L210" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>319</v>
-      </c>
-      <c r="B211" t="s">
-        <v>18</v>
-      </c>
-      <c r="C211" t="s">
-        <v>320</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.77319587628866</v>
-      </c>
-      <c r="E211"/>
-      <c r="F211" t="s">
-        <v>320</v>
-      </c>
-      <c r="G211" t="s">
-        <v>15</v>
-      </c>
-      <c r="H211" t="s">
-        <v>321</v>
-      </c>
-      <c r="I211" t="n">
-        <v>3</v>
-      </c>
-      <c r="J211"/>
-      <c r="K211"/>
-      <c r="L211"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>322</v>
-      </c>
-      <c r="B212" t="s">
-        <v>39</v>
-      </c>
-      <c r="C212" t="s">
-        <v>323</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.586206896551724</v>
-      </c>
-      <c r="E212"/>
-      <c r="F212" t="s">
-        <v>323</v>
-      </c>
-      <c r="G212" t="s">
-        <v>15</v>
-      </c>
-      <c r="H212" t="s">
-        <v>324</v>
-      </c>
-      <c r="I212" t="n">
-        <v>4</v>
-      </c>
-      <c r="J212"/>
-      <c r="K212"/>
-      <c r="L212"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>325</v>
-      </c>
-      <c r="B213" t="s">
-        <v>29</v>
-      </c>
-      <c r="C213" t="s">
-        <v>326</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="E213"/>
-      <c r="F213" t="s">
-        <v>326</v>
-      </c>
-      <c r="G213" t="s">
-        <v>15</v>
-      </c>
-      <c r="H213" t="s">
-        <v>327</v>
-      </c>
-      <c r="I213" t="n">
-        <v>4</v>
-      </c>
-      <c r="J213"/>
-      <c r="K213"/>
-      <c r="L213"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>328</v>
-      </c>
-      <c r="B214" t="s">
-        <v>29</v>
-      </c>
-      <c r="C214" t="s">
-        <v>329</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="E214"/>
-      <c r="F214" t="s">
-        <v>329</v>
-      </c>
-      <c r="G214" t="s">
-        <v>15</v>
-      </c>
-      <c r="H214" t="s">
-        <v>330</v>
-      </c>
-      <c r="I214" t="n">
-        <v>4</v>
-      </c>
-      <c r="J214"/>
-      <c r="K214"/>
-      <c r="L214"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>331</v>
-      </c>
-      <c r="B215" t="s">
-        <v>18</v>
-      </c>
-      <c r="C215" t="s">
-        <v>332</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.444444444444444</v>
-      </c>
-      <c r="E215"/>
-      <c r="F215" t="s">
-        <v>332</v>
-      </c>
-      <c r="G215" t="s">
-        <v>15</v>
-      </c>
-      <c r="H215" t="s">
-        <v>333</v>
-      </c>
-      <c r="I215" t="n">
-        <v>4</v>
-      </c>
-      <c r="J215"/>
-      <c r="K215"/>
-      <c r="L215"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>334</v>
-      </c>
-      <c r="B216" t="s">
-        <v>39</v>
-      </c>
-      <c r="C216" t="s">
-        <v>335</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.112903225806452</v>
-      </c>
-      <c r="E216"/>
-      <c r="F216" t="s">
-        <v>335</v>
-      </c>
-      <c r="G216" t="s">
-        <v>15</v>
-      </c>
-      <c r="H216" t="s">
-        <v>336</v>
-      </c>
-      <c r="I216" t="n">
-        <v>4</v>
-      </c>
-      <c r="J216"/>
-      <c r="K216"/>
-      <c r="L216"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>337</v>
-      </c>
-      <c r="B217" t="s">
-        <v>39</v>
-      </c>
-      <c r="C217" t="s">
-        <v>338</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.370967741935484</v>
-      </c>
-      <c r="E217"/>
-      <c r="F217" t="s">
-        <v>338</v>
-      </c>
-      <c r="G217" t="s">
-        <v>15</v>
-      </c>
-      <c r="H217" t="s">
-        <v>339</v>
-      </c>
-      <c r="I217" t="n">
-        <v>3</v>
-      </c>
-      <c r="J217"/>
-      <c r="K217"/>
-      <c r="L217"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>340</v>
-      </c>
-      <c r="B218" t="s">
-        <v>29</v>
-      </c>
-      <c r="C218" t="s">
-        <v>341</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="E218"/>
-      <c r="F218" t="s">
-        <v>341</v>
-      </c>
-      <c r="G218" t="s">
-        <v>15</v>
-      </c>
-      <c r="H218" t="s">
-        <v>342</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4</v>
-      </c>
-      <c r="J218"/>
-      <c r="K218"/>
-      <c r="L218"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>343</v>
-      </c>
-      <c r="B219" t="s">
-        <v>39</v>
-      </c>
-      <c r="C219" t="s">
-        <v>344</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.483870967741935</v>
-      </c>
-      <c r="E219"/>
-      <c r="F219" t="s">
-        <v>344</v>
-      </c>
-      <c r="G219" t="s">
-        <v>15</v>
-      </c>
-      <c r="H219" t="s">
-        <v>345</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3</v>
-      </c>
-      <c r="J219"/>
-      <c r="K219"/>
-      <c r="L219"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>346</v>
-      </c>
-      <c r="B220" t="s">
-        <v>29</v>
-      </c>
-      <c r="C220" t="s">
-        <v>347</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.359375</v>
-      </c>
-      <c r="E220"/>
-      <c r="F220" t="s">
-        <v>347</v>
-      </c>
-      <c r="G220" t="s">
-        <v>15</v>
-      </c>
-      <c r="H220" t="s">
-        <v>348</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3</v>
-      </c>
-      <c r="J220"/>
-      <c r="K220"/>
-      <c r="L220"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>349</v>
-      </c>
-      <c r="B221" t="s">
-        <v>18</v>
-      </c>
-      <c r="C221" t="s">
-        <v>350</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E221"/>
-      <c r="F221" t="s">
-        <v>350</v>
-      </c>
-      <c r="G221" t="s">
-        <v>15</v>
-      </c>
-      <c r="H221" t="s">
-        <v>351</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3</v>
-      </c>
-      <c r="J221"/>
-      <c r="K221"/>
-      <c r="L221"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
